--- a/biology/Botanique/Erica/Erica.xlsx
+++ b/biology/Botanique/Erica/Erica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erica est un genre de plantes à fleurs de la famille des Ericaceae. Le genre compte environ 860 espèces dans le monde[1]. Ces plantes sont le plus souvent des arbrisseaux ou des arbustes et partagent avec quelques autres genres proches le nom commun de bruyères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erica est un genre de plantes à fleurs de la famille des Ericaceae. Le genre compte environ 860 espèces dans le monde. Ces plantes sont le plus souvent des arbrisseaux ou des arbustes et partagent avec quelques autres genres proches le nom commun de bruyères.
 Près de 90 % des espèces, dont de nombreuses espèces endémiques, se trouvent en Afrique du Sud. Les 70 espèces restantes se rencontrent à travers toute l'Afrique, autour de la Méditerranée et en Europe.
 Le fynbos sud-africain est riche en Erica, dont certaines sont remarquables par la taille et la couleur de leur floraisons.
 </t>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Erica vient du latin Erice et du grec erikê, ou ereikê, qui signifie « briser » avec semble-t-il une double connotation : la fragilité des rameaux mais aussi l'allusion à son ancien emploi médicinal supposant dissoudre les calculs rénaux. Le terme grec a fini par désigner la bruyère arborescente[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Erica vient du latin Erice et du grec erikê, ou ereikê, qui signifie « briser » avec semble-t-il une double connotation : la fragilité des rameaux mais aussi l'allusion à son ancien emploi médicinal supposant dissoudre les calculs rénaux. Le terme grec a fini par désigner la bruyère arborescente.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World Online, le genre compte les synonymes suivant[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World Online, le genre compte les synonymes suivant:
 Acrostemon Klotzsch in Linnaea 12: 227 (1838)
 Aniserica N.E.Br. in W.H.Harvey &amp; auct. suc. (eds.), Fl. Cap. 4(1): 391 (1906)
 Anomalanthus Klotzsch in Linnaea 12: 238 (1838)
@@ -607,7 +623,7 @@
 Plagiostemon Klotzsch in Linnaea 12: 232 (1838)
 Platycalyx N.E.Br. in W.H.Harvey &amp; auct. suc. (eds.), Fl. Cap. 4(1): 335 (1905)
 Salaxis Salisb. in Trans. Linn. Soc. 6: 317 (1802)
-Scyphogyne Decne. in L.I.Duperrey, Voy. Monde, Phan.: t. 54 (1834)[4]
+Scyphogyne Decne. in L.I.Duperrey, Voy. Monde, Phan.: t. 54 (1834)
 Simocheilus Klotzsch in Linnaea 12: 236 (1838)
 Stokoeanthus E.G.H.Oliv. in Bothalia 12: 49 (1976)
 Sympieza Licht. ex Roem. &amp; Schult. in Syst. Veg., ed. 15[bis]. 3: 8, 171 (1818)
@@ -646,9 +662,11 @@
           <t>Vraie et fausse bruyère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erica est la « vraie » bruyère qui se distingue de la Callune, la « fausse bruyère » qui est la plus commune. Elle s'en distingue par ses feuilles en aiguille disposées par 3 (feuilles opposées en forme de petites écailles sessiles imbriquées sur 4 rangs chez Calluna), son calice simple (constitué de 4 lobes verts), et sa corolle gamopétale faite de 4 pétales soudés en grelot avec 4 pointes au sommet. Un moyen mnémotechnique de différencier les deux est Callune, calme et Bruyère, bruit, en référence au son produit lorsqu'on passe la main sur les deux plantes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erica est la « vraie » bruyère qui se distingue de la Callune, la « fausse bruyère » qui est la plus commune. Elle s'en distingue par ses feuilles en aiguille disposées par 3 (feuilles opposées en forme de petites écailles sessiles imbriquées sur 4 rangs chez Calluna), son calice simple (constitué de 4 lobes verts), et sa corolle gamopétale faite de 4 pétales soudés en grelot avec 4 pointes au sommet. Un moyen mnémotechnique de différencier les deux est Callune, calme et Bruyère, bruit, en référence au son produit lorsqu'on passe la main sur les deux plantes.
 </t>
         </is>
       </c>
@@ -679,8 +697,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Les espèces françaises
-Erica arborea L. — bruyère arborescente
+          <t>Les espèces françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Erica arborea L. — bruyère arborescente
 Erica arborescens (Willd.) E.G.H. Oliv. — branle filao, endémique de l’Île de la Réunion
 Erica carnea L. (Syn. Erica herbacea L.) — bruyère carnée, bruyère de l'ouest, bruyère des neiges, bruyère des Alpes
 Erica ciliaris L. — bruyère ciliée
